--- a/exceldata.xlsx
+++ b/exceldata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">UserName</t>
   </si>
@@ -28,25 +28,10 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">123@gmail.com</t>
-    </r>
+    <t xml:space="preserve">ash123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we123456</t>
   </si>
 </sst>
 </file>
@@ -128,8 +113,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,13 +142,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -171,16 +160,16 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>123456</v>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="123@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="ash123@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
